--- a/Experimento 1/Relatório/Tabelas para montar os gráficos.xlsx
+++ b/Experimento 1/Relatório/Tabelas para montar os gráficos.xlsx
@@ -393,7 +393,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -602,11 +602,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="41978307"/>
-        <c:axId val="44852068"/>
+        <c:axId val="30369214"/>
+        <c:axId val="78192746"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41978307"/>
+        <c:axId val="30369214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,14 +638,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44852068"/>
+        <c:crossAx val="78192746"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44852068"/>
+        <c:axId val="78192746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +684,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41978307"/>
+        <c:crossAx val="30369214"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -779,7 +779,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1357,12 +1357,12 @@
         <v>0.00013784</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>5.281E-005</v>
+        <v>0.05281496</v>
       </c>
       <c r="K28" s="6" t="n">
         <v>5.281E-005</v>
